--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91758</v>
+        <v>41203</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivia Nascimento</t>
+          <t>Ana Clara Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>9788.5</v>
+        <v>11081.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89797</v>
+        <v>42647</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza Moura</t>
+          <t>Yasmin Barros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>9739.379999999999</v>
+        <v>3882.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22214</v>
+        <v>35999</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eloah Viana</t>
+          <t>Sr. Davi Farias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,51 +552,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9023.959999999999</v>
+        <v>3540.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9712</v>
+        <v>14554</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joana Silveira</t>
+          <t>Ana Sophia Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>6599.87</v>
+        <v>11738.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52144</v>
+        <v>53013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marina Jesus</t>
+          <t>Benício Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,147 +606,147 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>6427.09</v>
+        <v>2558.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61007</v>
+        <v>66510</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Souza</t>
+          <t>Alice da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>2875.26</v>
+        <v>4999.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37333</v>
+        <v>91107</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fernando Cavalcanti</t>
+          <t>Esther Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>3560.97</v>
+        <v>4081.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8384</v>
+        <v>95915</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique Jesus</t>
+          <t>Yago Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>3091.94</v>
+        <v>10410.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15700</v>
+        <v>32422</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Erick Duarte</t>
+          <t>Matheus da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>7965.55</v>
+        <v>8157.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39606</v>
+        <v>17110</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Fogaça</t>
+          <t>Benício Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>9305.459999999999</v>
+        <v>10660.61</v>
       </c>
     </row>
   </sheetData>
